--- a/res/page/账号管理/UserPage.xlsx
+++ b/res/page/账号管理/UserPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>别名</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>//div[@class='modal-container']//label[text()='确认密码']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>登录名</t>
+  </si>
+  <si>
+    <t>//header//span/a</t>
   </si>
 </sst>
 </file>
@@ -215,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,17 +243,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,13 +340,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -273,108 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,19 +401,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,163 +563,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,22 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +636,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +697,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -930,7 +936,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CBE9CE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1209,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1561,6 +1567,17 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/账号管理/UserPage.xlsx
+++ b/res/page/账号管理/UserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>别名</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>//header//span/a</t>
+  </si>
+  <si>
+    <t>用户昵称</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'用户昵称')]/following-sibling::*[1]//input</t>
   </si>
 </sst>
 </file>
@@ -221,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -243,6 +249,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -250,7 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,51 +370,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,22 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -339,52 +391,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -401,67 +407,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,31 +557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,79 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,17 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +646,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -651,9 +681,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,37 +705,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1578,6 +1584,17 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/账号管理/UserPage.xlsx
+++ b/res/page/账号管理/UserPage.xlsx
@@ -227,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -263,6 +263,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -271,6 +286,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -285,38 +316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,45 +334,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,11 +348,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -407,187 +407,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,17 +631,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,44 +672,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +689,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,145 +721,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/账号管理/UserPage.xlsx
+++ b/res/page/账号管理/UserPage.xlsx
@@ -183,7 +183,7 @@
     <t>搜索框</t>
   </si>
   <si>
-    <t>//input[@placeholder='用户名称']</t>
+    <t>//input[@placeholder='登录账号']</t>
   </si>
   <si>
     <t>搜索按钮</t>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -255,9 +255,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,15 +362,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,105 +378,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,13 +407,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,169 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,45 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -666,26 +627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +654,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/res/page/账号管理/UserPage.xlsx
+++ b/res/page/账号管理/UserPage.xlsx
@@ -135,37 +135,37 @@
     <t>设置角色</t>
   </si>
   <si>
-    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//button[@title='设置角色']</t>
+    <t>//*[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//button[@title='设置角色']</t>
   </si>
   <si>
     <t>设置车场分组</t>
   </si>
   <si>
-    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//button[@title='设置车场分组']</t>
+    <t>//*[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//button[@title='设置车场分组']</t>
   </si>
   <si>
     <t>重置密码</t>
   </si>
   <si>
-    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//button[@title='重置密码']</t>
+    <t>//*[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//button[@title='重置密码']</t>
   </si>
   <si>
     <t>修改用户</t>
   </si>
   <si>
-    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//button[@title='修改用户']</t>
+    <t>//*[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//button[@title='修改用户']</t>
   </si>
   <si>
     <t>删除</t>
   </si>
   <si>
-    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//button[@title='删除']</t>
+    <t>//*[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//button[@title='删除']</t>
   </si>
   <si>
     <t>删除-确认</t>
   </si>
   <si>
-    <t>//h3[contains(text(),'温馨提示')]/..//button[contains(text(),'确认')]</t>
+    <t>//h3[contains(text(),'温馨提示')]/..//button[contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>勾选全部选项</t>
@@ -195,7 +195,7 @@
     <t>操作成功-提示</t>
   </si>
   <si>
-    <t>//div[@class='toast-wrapper']</t>
+    <t>//div[@class='toast-wrapper']//span</t>
   </si>
   <si>
     <t>修改密码-用户密码</t>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -255,6 +255,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -263,9 +279,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,116 +337,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,49 +407,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,49 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,79 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,21 +617,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -649,8 +634,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,19 +658,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +702,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1564,7 +1564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" ht="29" customHeight="1" spans="1:3">
+    <row r="31" ht="20" customHeight="1" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" ht="20" customHeight="1" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" ht="20" customHeight="1" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>

--- a/res/page/账号管理/UserPage.xlsx
+++ b/res/page/账号管理/UserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>别名</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>//nav[@class='menu-box']//a[contains(text(), "账号管理")]</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>//nav[@class='menu-box']//a[contains(text(), "首页")]</t>
   </si>
   <si>
     <t>用户管理</t>
@@ -227,8 +233,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -248,21 +254,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -278,22 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,20 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -346,12 +310,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -368,9 +367,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +413,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,168 +594,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,26 +622,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,8 +664,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,23 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1542,7 +1548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="29" customHeight="1" spans="1:3">
+    <row r="29" ht="33" customHeight="1" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="1:3">
+    <row r="31" ht="29" customHeight="1" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1595,6 +1601,17 @@
       </c>
       <c r="C33" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
